--- a/assets/excel/format_file.xlsx
+++ b/assets/excel/format_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>NPP</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>TANGGAL TUGAS</t>
+  </si>
+  <si>
+    <t>UNIT KERJA</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN DIMILIKI</t>
+  </si>
+  <si>
+    <t>PENDIDIKAN LENGKAP</t>
   </si>
 </sst>
 </file>
@@ -408,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,9 +435,12 @@
     <col min="9" max="9" width="57.7109375" customWidth="1"/>
     <col min="10" max="10" width="49.85546875" customWidth="1"/>
     <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" customWidth="1"/>
+    <col min="14" max="14" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,6 +473,15 @@
       </c>
       <c r="K1" t="s">
         <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
